--- a/excelFiles/Migrated_Snapshot.xlsx
+++ b/excelFiles/Migrated_Snapshot.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="472">
   <si>
     <t>ID</t>
   </si>
@@ -41,78 +41,940 @@
     <t>Description</t>
   </si>
   <si>
+    <t>INC42930203</t>
+  </si>
+  <si>
+    <t>7092</t>
+  </si>
+  <si>
+    <t>05.06.25</t>
+  </si>
+  <si>
+    <t>Kristin Hohenhausen</t>
+  </si>
+  <si>
+    <t>2 - High</t>
+  </si>
+  <si>
+    <t>Confirm_Closed</t>
+  </si>
+  <si>
+    <t>Es können keine Vertretungsregeln bearbeitet werden / No substitution rules can be edited.
+Related to 6000142896</t>
+  </si>
+  <si>
+    <t>6000142896</t>
+  </si>
+  <si>
+    <t>SRE</t>
+  </si>
+  <si>
+    <t>11.06.25</t>
+  </si>
+  <si>
+    <t>Theresa Lochhuber</t>
+  </si>
+  <si>
+    <t>VIM: problem with passive substitution
+Related to 6000142434</t>
+  </si>
+  <si>
+    <t>INC43019830</t>
+  </si>
+  <si>
+    <t>490C</t>
+  </si>
+  <si>
+    <t>18.06.25</t>
+  </si>
+  <si>
+    <t>Lucie Kostrhounová</t>
+  </si>
+  <si>
+    <t>4 - Low</t>
+  </si>
+  <si>
+    <t>unposted document moved to my completed
+From Prague WS - AI8</t>
+  </si>
+  <si>
+    <t>INC43881294</t>
+  </si>
+  <si>
+    <t>ORA</t>
+  </si>
+  <si>
+    <t>13.10.25</t>
+  </si>
+  <si>
+    <t>Cajtchamlová, Martina</t>
+  </si>
+  <si>
+    <t>VIM_technical approver DUMMY_18514</t>
+  </si>
+  <si>
+    <t>INC43954778</t>
+  </si>
+  <si>
+    <t>BUZ</t>
+  </si>
+  <si>
+    <t>23.10.25</t>
+  </si>
+  <si>
+    <t>Kostovski, Simon</t>
+  </si>
+  <si>
+    <t>3 - Medium</t>
+  </si>
+  <si>
+    <t>Items having R blocks, still, even though the GR was posted. Request to make available changes in MRBR</t>
+  </si>
+  <si>
+    <t>INC44007416</t>
+  </si>
+  <si>
+    <t>30.10.25</t>
+  </si>
+  <si>
+    <t>DP 24226 disappeared from VIM Analytics</t>
+  </si>
+  <si>
+    <t>INC44018070</t>
+  </si>
+  <si>
+    <t>31.10.25</t>
+  </si>
+  <si>
+    <t>Cífka, Zdeněk</t>
+  </si>
+  <si>
+    <t>S4P / Hypercare Release 1420 - VIM - when we click on the button "Post" and jump into MIR4, the already entered accounting data (sheet "G/L Account") disappear</t>
+  </si>
+  <si>
+    <t>INC44019276</t>
+  </si>
+  <si>
+    <t>DP 24655- unposted document in My Completed tab</t>
+  </si>
+  <si>
+    <t>INC44051042</t>
+  </si>
+  <si>
+    <t>STSPL IN</t>
+  </si>
+  <si>
+    <t>05.11.25</t>
+  </si>
+  <si>
+    <t>T, Purushothama</t>
+  </si>
+  <si>
+    <t>#HC Image in VIM Workplace not showing up</t>
+  </si>
+  <si>
+    <t>INC44013959</t>
+  </si>
+  <si>
+    <t>Bara, Claudia Mihaela</t>
+  </si>
+  <si>
+    <t>hc:workflow invoices cannot be forwarded</t>
+  </si>
+  <si>
+    <t>INC44053998</t>
+  </si>
+  <si>
+    <t>gen</t>
+  </si>
+  <si>
+    <t>Šplíchalová, Ilona</t>
+  </si>
+  <si>
+    <t>Forward issue</t>
+  </si>
+  <si>
+    <t>INC44109333</t>
+  </si>
+  <si>
+    <t>3366 WSTECH</t>
+  </si>
+  <si>
+    <t>12.11.25</t>
+  </si>
+  <si>
+    <t>Rupp, Christine</t>
+  </si>
+  <si>
+    <t>Definition of a fixed cost assignment per vendor within VIM</t>
+  </si>
+  <si>
+    <t>INC44123924</t>
+  </si>
+  <si>
+    <t>SIB</t>
+  </si>
+  <si>
+    <t>13.11.25</t>
+  </si>
+  <si>
+    <t>VIM_No measurement unit is assigned to ISO code SPACE</t>
+  </si>
+  <si>
+    <t>INC44127763</t>
+  </si>
+  <si>
+    <t>14.11.25</t>
+  </si>
+  <si>
+    <t>CNs with R blocks-proposal for removal</t>
+  </si>
+  <si>
+    <t>INC44138662</t>
+  </si>
+  <si>
+    <t>In Process</t>
+  </si>
+  <si>
+    <t>Issue after R1421 - system still reports, that user is processing PO</t>
+  </si>
+  <si>
+    <t>INC44147077</t>
+  </si>
+  <si>
+    <t>posted documents in my inbox</t>
+  </si>
+  <si>
+    <t>INC44147084</t>
+  </si>
+  <si>
+    <t>posted documents in my inbox with In Process process</t>
+  </si>
+  <si>
+    <t>INC44153405</t>
+  </si>
+  <si>
+    <t>VIM_unapproved documents in my completed tab</t>
+  </si>
+  <si>
+    <t>INC44163684</t>
+  </si>
+  <si>
+    <t>VIM_unposted documents in my completed</t>
+  </si>
+  <si>
+    <t>INC44184252</t>
+  </si>
+  <si>
+    <t>Blocked document with SAP_WFRT user - we cannot start workflow</t>
+  </si>
+  <si>
+    <t>INC44198641</t>
+  </si>
+  <si>
+    <t>VIM_close the process and move documents to "My Completed" tab</t>
+  </si>
+  <si>
+    <t>INC44199848</t>
+  </si>
+  <si>
+    <t>DP 23235_delete this connection with an invoice</t>
+  </si>
+  <si>
+    <t>INC44202387</t>
+  </si>
+  <si>
+    <t>Pop, Raluca Mariana</t>
+  </si>
+  <si>
+    <t>Doc ID 16725 Invoice VDF730596273 cannot be approved</t>
+  </si>
+  <si>
+    <t>INC44206091</t>
+  </si>
+  <si>
+    <t>#HC Once the IR is booked, booked processor GID should reflect.</t>
+  </si>
+  <si>
+    <t>INC44206229</t>
+  </si>
+  <si>
+    <t>Please remove payment block for doc id 5348, 28091, 8347</t>
+  </si>
+  <si>
+    <t>INC44207917</t>
+  </si>
+  <si>
+    <t>SMO DK</t>
+  </si>
+  <si>
+    <t>Jensen, Bettina W.</t>
+  </si>
+  <si>
+    <t>posting at vendor invoices vat number missing, sometime both VAT number is missing and sometime only</t>
+  </si>
+  <si>
+    <t>INC44216822</t>
+  </si>
+  <si>
+    <t>credit issue - BYPASS in vim (all credit no auto posting)</t>
+  </si>
+  <si>
+    <t>INC44218847</t>
+  </si>
+  <si>
+    <t>3366 - VIM Cannot Initialize the Approval Process! Check Configuration!</t>
+  </si>
+  <si>
+    <t>INC44222821</t>
+  </si>
+  <si>
+    <t>Please check doc id 24126 - invoice is blocked and cannot be released</t>
+  </si>
+  <si>
+    <t>INC44222859</t>
+  </si>
+  <si>
+    <t>Maresi Alina Corina</t>
+  </si>
+  <si>
+    <t>can not approve the invoice from Cisri even the buyer changed the price in the PO according to the invoice</t>
+  </si>
+  <si>
+    <t>INC44226275</t>
+  </si>
+  <si>
+    <t>Kumar O, Praveen</t>
+  </si>
+  <si>
+    <t>Unable to approve the 2nd level payment of Sahayata payment in VIM to affiliate AREs.</t>
+  </si>
+  <si>
+    <t>INC44227659</t>
+  </si>
+  <si>
+    <t>Agachi, Elena</t>
+  </si>
+  <si>
+    <t>#HC: users cannot open the pdf invoice in the approval app</t>
+  </si>
+  <si>
+    <t>INC44232478</t>
+  </si>
+  <si>
+    <t>Michalusová, Lenka</t>
+  </si>
+  <si>
+    <t>VIM - Please set these documents to status completed</t>
+  </si>
+  <si>
+    <t>INC44236544</t>
+  </si>
+  <si>
+    <t>Please introduce rounding acceptance for WSTECH - 3366</t>
+  </si>
+  <si>
+    <t>INC44236712</t>
+  </si>
+  <si>
+    <t>Default setting "manual tax code" - 3366</t>
+  </si>
+  <si>
+    <t>INC44236770</t>
+  </si>
+  <si>
+    <t>Jensen, Bettina</t>
+  </si>
+  <si>
+    <t>Order unit issue (po with EA and Posting PC and needs to be done manually)</t>
+  </si>
+  <si>
+    <t>INC44243762</t>
+  </si>
+  <si>
+    <t>Larsen, Mathias</t>
+  </si>
+  <si>
+    <t>Cannot display pdf</t>
+  </si>
+  <si>
+    <t>INC44247780</t>
+  </si>
+  <si>
+    <t>3003</t>
+  </si>
+  <si>
+    <t>S4P / 3003 - Payment block Z is automatically entered in RD documents after making any change through the transaction FBD3</t>
+  </si>
+  <si>
+    <t>INC44248391</t>
+  </si>
+  <si>
+    <t>3014</t>
+  </si>
+  <si>
+    <t>Tomisová, Ivana</t>
+  </si>
+  <si>
+    <t>3014 - Please deactive Business rule 772 - Multiple PO postings needed - DP 30229 and 29924</t>
+  </si>
+  <si>
+    <t>INC44248424</t>
+  </si>
+  <si>
+    <t>3014 - please move document from all completed to inbox - not posted yet DP 29235</t>
+  </si>
+  <si>
+    <t>INC44255491</t>
+  </si>
+  <si>
+    <t>Nayak, Manjunath</t>
+  </si>
+  <si>
+    <t>#HC_AP invoice approval issue.Reference 63584R ID: 31405</t>
+  </si>
+  <si>
+    <t>INC44260299</t>
+  </si>
+  <si>
+    <t>3014 – Multiple PO posting needed – please deactivate business rule 772 – DP 29442 and 29957</t>
+  </si>
+  <si>
+    <t>INC44260349</t>
+  </si>
+  <si>
+    <t>3014 - DP 28951 in completed status but not posted</t>
+  </si>
+  <si>
+    <t>INC44262323</t>
+  </si>
+  <si>
+    <t>Posted invoices are not being directed to the correct approvers</t>
+  </si>
+  <si>
+    <t>INC44271709</t>
+  </si>
+  <si>
+    <t>post invoices as SUBsequent Debit or Credit via automatic VIM posting</t>
+  </si>
+  <si>
+    <t>INC44273427</t>
+  </si>
+  <si>
+    <t>3014 - please deactivate Business rule 772 - DP 18966</t>
+  </si>
+  <si>
+    <t>INC44274194</t>
+  </si>
+  <si>
+    <t>VIM_add vendor 1000065516 to the table to allow posting with multiple POs</t>
+  </si>
+  <si>
+    <t>INC44274270</t>
+  </si>
+  <si>
+    <t>VIM_add vendor 1002713910 to the table to allow posting with multiple POs</t>
+  </si>
+  <si>
+    <t>INC44276638</t>
+  </si>
+  <si>
+    <t>Foghis, Loredana Daniela</t>
+  </si>
+  <si>
+    <t>cannot approve doc ID 26179</t>
+  </si>
+  <si>
+    <t>INC44279290</t>
+  </si>
+  <si>
+    <t>Piedade, Pedro</t>
+  </si>
+  <si>
+    <t>Clarification in VIM Documents cannot be removed</t>
+  </si>
+  <si>
+    <t>INC44282280</t>
+  </si>
+  <si>
+    <t>To imlement the CI from 804064/2025 OSS ticket</t>
+  </si>
+  <si>
+    <t>INC44288553</t>
+  </si>
+  <si>
+    <t>To implement CI to VIM AP Workplace App issue</t>
+  </si>
+  <si>
+    <t>INC44288590</t>
+  </si>
+  <si>
+    <t>No legal requirement that our VAT number is included on a supplier invoice</t>
+  </si>
+  <si>
+    <t>INC44289482</t>
+  </si>
+  <si>
+    <t>Issue with SAT approval process</t>
+  </si>
+  <si>
+    <t>INC44292065</t>
+  </si>
+  <si>
+    <t>DP 22610 - blocked document without assigned role</t>
+  </si>
+  <si>
+    <t>INC44292223</t>
+  </si>
+  <si>
+    <t>VIM_28557, 28548_status awaiting approval vs. blocked</t>
+  </si>
+  <si>
     <t>INC44292283</t>
   </si>
   <si>
-    <t>3014</t>
-  </si>
-  <si>
-    <t>Cajtchamlová, Martina</t>
-  </si>
-  <si>
-    <t>4 - Low</t>
-  </si>
-  <si>
-    <t>Confirm_Closed</t>
-  </si>
-  <si>
     <t>VIM_3014_status Awaiting approval vs. Posted</t>
   </si>
   <si>
+    <t>INC44297226</t>
+  </si>
+  <si>
+    <t>Qureshi, Imran</t>
+  </si>
+  <si>
+    <t>Approval error</t>
+  </si>
+  <si>
+    <t>INC44298724</t>
+  </si>
+  <si>
+    <t>VIM_status Blocked vs. Awaiting approval</t>
+  </si>
+  <si>
+    <t>INC44298794</t>
+  </si>
+  <si>
+    <t>16725_not approved document is in All Completed</t>
+  </si>
+  <si>
+    <t>INC44299984</t>
+  </si>
+  <si>
+    <t>D R, Thirumalegowda</t>
+  </si>
+  <si>
+    <t># HC Unable to attach the email backup IN VIM Non PO AND PO case</t>
+  </si>
+  <si>
+    <t>INC44300907</t>
+  </si>
+  <si>
+    <t>Integration User</t>
+  </si>
+  <si>
+    <t>Document approval not in my inbox</t>
+  </si>
+  <si>
+    <t>INC44300914</t>
+  </si>
+  <si>
+    <t>Geis, Martina</t>
+  </si>
+  <si>
+    <t>Cannot forward invoice to several colleagues</t>
+  </si>
+  <si>
+    <t>INC44302168</t>
+  </si>
+  <si>
+    <t>Ungureanu, Claudia Lorena</t>
+  </si>
+  <si>
+    <t>Pleas reroute this invoice. I am the approver now.</t>
+  </si>
+  <si>
+    <t>INC44302798</t>
+  </si>
+  <si>
+    <t>Nakkina, Raviteja</t>
+  </si>
+  <si>
+    <t>System not showing the approval name</t>
+  </si>
+  <si>
+    <t>INC44304360</t>
+  </si>
+  <si>
+    <t>VIM_remove R block_7447, 7477</t>
+  </si>
+  <si>
+    <t>INC44304447</t>
+  </si>
+  <si>
+    <t>VIM_24909_close the process</t>
+  </si>
+  <si>
+    <t>INC44306575</t>
+  </si>
+  <si>
+    <t>Kumar, Rajeev</t>
+  </si>
+  <si>
+    <t>unbale to approve the inv, because approval icon is not available in SAP System</t>
+  </si>
+  <si>
+    <t>INC44306841</t>
+  </si>
+  <si>
+    <t>Please remove WF for two ICC invoices</t>
+  </si>
+  <si>
+    <t>INC44307682</t>
+  </si>
+  <si>
+    <t>VIM_3014_63 unprocessed documents in All completed</t>
+  </si>
+  <si>
+    <t>INC44308767</t>
+  </si>
+  <si>
+    <t>Remove A block for documents 3311671054, 3211172248</t>
+  </si>
+  <si>
+    <t>INC44310456</t>
+  </si>
+  <si>
+    <t>Nemec, Martina</t>
+  </si>
+  <si>
+    <t>Add 4 suppliers to VIM VAUD table</t>
+  </si>
+  <si>
+    <t>INC44314907</t>
+  </si>
+  <si>
+    <t>Bhorade, Vishal</t>
+  </si>
+  <si>
+    <t>#HC - Not able to approve the Invoices in S4P</t>
+  </si>
+  <si>
+    <t>INC44318220</t>
+  </si>
+  <si>
+    <t>VIM_please add this vendor to the table to allow posting with multiple POs: 1000024955</t>
+  </si>
+  <si>
+    <t>INC44319029</t>
+  </si>
+  <si>
+    <t>Posted documents are moving to completed box</t>
+  </si>
+  <si>
+    <t>INC44320339</t>
+  </si>
+  <si>
+    <t>NPO Credit notes not able to post</t>
+  </si>
+  <si>
+    <t>INC44324208</t>
+  </si>
+  <si>
+    <t>Prasad K, Nagendra</t>
+  </si>
+  <si>
+    <t>VIM Approvers are unable to see the invoice copy</t>
+  </si>
+  <si>
+    <t>INC44325043</t>
+  </si>
+  <si>
+    <t>Approvers have a problem approving documents</t>
+  </si>
+  <si>
+    <t>INC44325481</t>
+  </si>
+  <si>
+    <t>update of table /SIEC/VIM_DOC_PR</t>
+  </si>
+  <si>
+    <t>INC44327821</t>
+  </si>
+  <si>
+    <t>Høy, Niels-Erik</t>
+  </si>
+  <si>
+    <t>Payment of vendor 1000755049 invoice FAK07975718</t>
+  </si>
+  <si>
+    <t>INC44328457</t>
+  </si>
+  <si>
+    <t>DP 26179_close the process and remove R block</t>
+  </si>
+  <si>
+    <t>INC44329030</t>
+  </si>
+  <si>
+    <t>My Inbox invoices</t>
+  </si>
+  <si>
+    <t>INC44329389</t>
+  </si>
+  <si>
+    <t>Invoice not appearing on "Approval - Invoice Management"</t>
+  </si>
+  <si>
+    <t>INC44332195</t>
+  </si>
+  <si>
+    <t>Manual removal of blocks from migrated items</t>
+  </si>
+  <si>
+    <t>INC44335466</t>
+  </si>
+  <si>
+    <t>Add 3 suppliers to VIM VAUD table to stop autoposting</t>
+  </si>
+  <si>
+    <t>INC44338252</t>
+  </si>
+  <si>
+    <t>VIM_please remove R block if possible and close the process</t>
+  </si>
+  <si>
+    <t>INC44338461</t>
+  </si>
+  <si>
+    <t>VIM_no agent assigned to uncomplete documents</t>
+  </si>
+  <si>
+    <t>INC44338463</t>
+  </si>
+  <si>
+    <t>VIM_uncompleted documents moved to All completed</t>
+  </si>
+  <si>
+    <t>INC44339355</t>
+  </si>
+  <si>
+    <t>V, Anand</t>
+  </si>
+  <si>
+    <t>#HC VIM OCR Access Required</t>
+  </si>
+  <si>
+    <t>INC44343292</t>
+  </si>
+  <si>
+    <t>Invoices are not available in App "approval invoices" only in "my inbox"</t>
+  </si>
+  <si>
+    <t>INC44344891</t>
+  </si>
+  <si>
+    <t>Missing in Exception app + no authorisation</t>
+  </si>
+  <si>
+    <t>INC44345852</t>
+  </si>
+  <si>
+    <t>Approval cannot be started</t>
+  </si>
+  <si>
+    <t>INC44345935</t>
+  </si>
+  <si>
+    <t>VIM_DP 16243 - close the process</t>
+  </si>
+  <si>
+    <t>INC44345961</t>
+  </si>
+  <si>
+    <t>Customs invoices approval did not start, even though the Approvers are set in the SATtable</t>
+  </si>
+  <si>
+    <t>INC44346255</t>
+  </si>
+  <si>
+    <t>Please remove payment blocks, items cannot be paid</t>
+  </si>
+  <si>
+    <t>INC44351758</t>
+  </si>
+  <si>
+    <t>PDF Invoices don't appear in VIM Documents</t>
+  </si>
+  <si>
+    <t>INC44352220</t>
+  </si>
+  <si>
+    <t>Document is with error in Analytics but I can't see it in Workplace</t>
+  </si>
+  <si>
+    <t>INC44352828</t>
+  </si>
+  <si>
+    <t>Helici, Lucica</t>
+  </si>
+  <si>
+    <t>PDF not available for invoice to be approved</t>
+  </si>
+  <si>
+    <t>INC44354118</t>
+  </si>
+  <si>
+    <t>Add one supplier into VIM VAUD table</t>
+  </si>
+  <si>
+    <t>INC44355232</t>
+  </si>
+  <si>
+    <t>VIM_close process and remove R block</t>
+  </si>
+  <si>
+    <t>INC44359287</t>
+  </si>
+  <si>
+    <t>add vendor 1000034952 to the table to allow posting with multiple POs</t>
+  </si>
+  <si>
+    <t>INC44359840</t>
+  </si>
+  <si>
+    <t>Remove payment block and close the process</t>
+  </si>
+  <si>
+    <t>INC44361127</t>
+  </si>
+  <si>
+    <t>Munk, Monika</t>
+  </si>
+  <si>
+    <t>Multiple occurences of this issue. Not VIM-related.
+AUN 3366 - in VIM pdf-Belege Invoice nicht sichtbar wg. fehlerhafter Download-Anzeige</t>
+  </si>
+  <si>
+    <t>INC44362368</t>
+  </si>
+  <si>
+    <t>INC44207813 closed, documentation attached to this inc</t>
+  </si>
+  <si>
+    <t>INC44363749</t>
+  </si>
+  <si>
+    <t>Cannot work on the VIM item altough it says blocked</t>
+  </si>
+  <si>
+    <t>INC44368543</t>
+  </si>
+  <si>
+    <t>no agent assigned to DP 33621</t>
+  </si>
+  <si>
+    <t>INC44369987</t>
+  </si>
+  <si>
+    <t>in the App "Approval invoice management" - the invoice is not visible</t>
+  </si>
+  <si>
+    <t>INC44370593</t>
+  </si>
+  <si>
+    <t>Ilic, Isabelle</t>
+  </si>
+  <si>
+    <t>Incoming Invoices FX Exchange Rate Issue - System using wrong date for whole 3014</t>
+  </si>
+  <si>
+    <t>INC44371083</t>
+  </si>
+  <si>
+    <t>VIM_Status Cancelled vs. different statuses</t>
+  </si>
+  <si>
+    <t>INC44371201</t>
+  </si>
+  <si>
+    <t>VIM_Status Blocked vs. Posted</t>
+  </si>
+  <si>
+    <t>INC44371312</t>
+  </si>
+  <si>
+    <t>Hide the "Rescan" button in VIM Indexing screen</t>
+  </si>
+  <si>
+    <t>INC44371487</t>
+  </si>
+  <si>
+    <t>change predefined reversal reason in VIM</t>
+  </si>
+  <si>
     <t>INC44372855</t>
   </si>
   <si>
-    <t>STSPL IN</t>
-  </si>
-  <si>
-    <t>D R, Thirumalegowda</t>
-  </si>
-  <si>
     <t># HC VIM Workplace, the GST Registration Number is getting updated, and the Business Place is auto-changing unexpectedly</t>
   </si>
   <si>
+    <t>INC44377414</t>
+  </si>
+  <si>
+    <t>Cedidlo, Jiří</t>
+  </si>
+  <si>
+    <t>Document unblocking</t>
+  </si>
+  <si>
+    <t>INC44380098</t>
+  </si>
+  <si>
+    <t>add vendor 1000019241 to the table to allow posting with multiple POs</t>
+  </si>
+  <si>
+    <t>INC44383765</t>
+  </si>
+  <si>
+    <t>J S, Vijayalakshmi</t>
+  </si>
+  <si>
+    <t>#HC invoices need to move to VIM</t>
+  </si>
+  <si>
+    <t>INC44387799</t>
+  </si>
+  <si>
+    <t>3011</t>
+  </si>
+  <si>
+    <t>Pereira Dias Palmeiro Tavares, Maria Sofia</t>
+  </si>
+  <si>
+    <t>3011: Document number 5108593183 with doc status Blocked</t>
+  </si>
+  <si>
     <t>INC44401127</t>
   </si>
   <si>
-    <t>V, Anand</t>
-  </si>
-  <si>
-    <t>3 - Medium</t>
-  </si>
-  <si>
     <t>#HC Store Documents Invoices not reflecting in Ready for Validation.</t>
   </si>
   <si>
     <t>INC44403214</t>
   </si>
   <si>
-    <t>SIB</t>
-  </si>
-  <si>
     <t>Add vendor 1000019082 to the table to allow posting with multiple POs</t>
   </si>
   <si>
     <t>INC44405537</t>
   </si>
   <si>
-    <t>BUZ</t>
-  </si>
-  <si>
     <t>close the process for 5 documents</t>
   </si>
   <si>
     <t>INC44406883</t>
   </si>
   <si>
-    <t>SRE</t>
-  </si>
-  <si>
-    <t>Cífka, Zdeněk</t>
-  </si>
-  <si>
-    <t>In Process</t>
-  </si>
-  <si>
     <t>S4P / 3381 - There is no current role or current agent assigned for VIM ID 30041</t>
   </si>
   <si>
@@ -131,9 +993,6 @@
     <t>INC44408080</t>
   </si>
   <si>
-    <t>ORA</t>
-  </si>
-  <si>
     <t>add vendor 1000147571 to the table /OPT/VIM_BL_VAUD</t>
   </si>
   <si>
@@ -170,9 +1029,6 @@
     <t>INC44418916</t>
   </si>
   <si>
-    <t>Prasad K, Nagendra</t>
-  </si>
-  <si>
     <t>VIM approval issue</t>
   </si>
   <si>
@@ -215,18 +1071,9 @@
     <t>6000142441</t>
   </si>
   <si>
-    <t>INC42930203</t>
-  </si>
-  <si>
     <t>6000142434</t>
   </si>
   <si>
-    <t>6000142896</t>
-  </si>
-  <si>
-    <t>INC43019830</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -470,9 +1317,6 @@
     <t>INC43836990</t>
   </si>
   <si>
-    <t>INC43881294</t>
-  </si>
-  <si>
     <t>INC43887207</t>
   </si>
   <si>
@@ -530,15 +1374,9 @@
     <t>INC44000976</t>
   </si>
   <si>
-    <t>INC44007416</t>
-  </si>
-  <si>
     <t>INC44018033</t>
   </si>
   <si>
-    <t>INC44019276</t>
-  </si>
-  <si>
     <t>INC44025759</t>
   </si>
   <si>
@@ -548,12 +1386,6 @@
     <t>INC44045835</t>
   </si>
   <si>
-    <t>INC44013959</t>
-  </si>
-  <si>
-    <t>INC44053998</t>
-  </si>
-  <si>
     <t>INC44063171</t>
   </si>
   <si>
@@ -575,9 +1407,6 @@
     <t>INC44108279</t>
   </si>
   <si>
-    <t>INC44123924</t>
-  </si>
-  <si>
     <t>INC44131543</t>
   </si>
   <si>
@@ -587,42 +1416,18 @@
     <t>INC44134441</t>
   </si>
   <si>
-    <t>INC44138662</t>
-  </si>
-  <si>
     <t>INC44138836</t>
   </si>
   <si>
-    <t>INC44147077</t>
-  </si>
-  <si>
-    <t>INC44147084</t>
-  </si>
-  <si>
-    <t>INC44153405</t>
-  </si>
-  <si>
-    <t>INC44163684</t>
-  </si>
-  <si>
     <t>INC44182026</t>
   </si>
   <si>
-    <t>INC44184252</t>
-  </si>
-  <si>
     <t>INC44186109</t>
   </si>
   <si>
     <t>INC44186964</t>
   </si>
   <si>
-    <t>INC44198641</t>
-  </si>
-  <si>
-    <t>INC44202387</t>
-  </si>
-  <si>
     <t>INC44202474</t>
   </si>
   <si>
@@ -630,63 +1435,6 @@
   </si>
   <si>
     <t>INC44226037</t>
-  </si>
-  <si>
-    <t>INC44232478</t>
-  </si>
-  <si>
-    <t>INC44248424</t>
-  </si>
-  <si>
-    <t>INC44260349</t>
-  </si>
-  <si>
-    <t>INC44279290</t>
-  </si>
-  <si>
-    <t>INC44292223</t>
-  </si>
-  <si>
-    <t>INC44298724</t>
-  </si>
-  <si>
-    <t>INC44298794</t>
-  </si>
-  <si>
-    <t>INC44300907</t>
-  </si>
-  <si>
-    <t>INC44300914</t>
-  </si>
-  <si>
-    <t>INC44307682</t>
-  </si>
-  <si>
-    <t>INC44314907</t>
-  </si>
-  <si>
-    <t>INC44319029</t>
-  </si>
-  <si>
-    <t>INC44327821</t>
-  </si>
-  <si>
-    <t>INC44338463</t>
-  </si>
-  <si>
-    <t>INC44343292</t>
-  </si>
-  <si>
-    <t>INC44363749</t>
-  </si>
-  <si>
-    <t>INC44371083</t>
-  </si>
-  <si>
-    <t>INC44371201</t>
-  </si>
-  <si>
-    <t>INC44383765</t>
   </si>
 </sst>
 </file>
@@ -865,7 +1613,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H131"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -874,11 +1622,11 @@
     <col min="1" max="1" width="11.75390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.24609375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.453125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="21.55078125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="34.796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="14.36328125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="10.19921875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="13.6953125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="100.703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="132.25390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -914,387 +1662,3377 @@
       <c r="B2" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C2" t="n" s="6">
-        <v>45996.67223379629</v>
+      <c r="C2" t="s" s="0">
+        <v>10</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="n" s="6">
-        <v>46020.0</v>
+        <v>45992.0</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="C3" t="n" s="6">
-        <v>46010.0</v>
+        <v>16</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>17</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3" t="n" s="6">
-        <v>46020.0</v>
+        <v>45992.0</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="C4" t="n" s="6">
-        <v>46017.348287037035</v>
+        <v>21</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>22</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E4" t="n" s="6">
-        <v>46020.0</v>
+        <v>46003.0</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C5" t="n" s="6">
-        <v>46019.397465277776</v>
+        <v>27</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>28</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E5" t="n" s="6">
-        <v>46020.0</v>
+        <v>45996.0</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="C6" t="n" s="6">
-        <v>46020.36070601852</v>
+        <v>32</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>33</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E6" t="n" s="6">
-        <v>46020.0</v>
+        <v>46003.0</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="C7" t="n" s="6">
-        <v>46020.56675925926</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>30</v>
-      </c>
       <c r="E7" t="n" s="6">
-        <v>46020.0</v>
+        <v>45992.0</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="C8" t="n" s="6">
-        <v>46020.84887731481</v>
+        <v>16</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>41</v>
       </c>
       <c r="D8" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="E8" t="n" s="6">
+        <v>45996.0</v>
+      </c>
+      <c r="F8" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="E8" t="n" s="6">
-        <v>46021.0</v>
-      </c>
-      <c r="F8" t="s" s="0">
-        <v>11</v>
-      </c>
       <c r="G8" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C9" t="n" s="6">
-        <v>46020.89542824074</v>
+        <v>27</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>41</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E9" t="n" s="6">
-        <v>46021.0</v>
+        <v>45992.0</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="C10" t="n" s="6">
-        <v>46021.39056712963</v>
+        <v>47</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>48</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E10" t="n" s="6">
-        <v>46021.0</v>
+        <v>46011.0</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C11" t="n" s="6">
-        <v>46021.57331018519</v>
+        <v>45966.0</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="E11" t="n" s="6">
-        <v>46021.0</v>
+        <v>46010.0</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="C12" t="n" s="6">
-        <v>46021.0</v>
+        <v>55</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>48</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E12" t="n" s="6">
-        <v>46021.0</v>
+        <v>46010.0</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s" s="0">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="H12" t="s" s="0">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C13" t="n" s="6">
-        <v>46024.0</v>
+        <v>59</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>60</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="E13" t="n" s="6">
-        <v>46024.0</v>
+        <v>45994.0</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H13" t="s" s="0">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C14" t="n" s="6">
-        <v>46024.0</v>
+        <v>64</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>65</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="E14" t="n" s="6">
-        <v>46024.0</v>
+        <v>45992.0</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="G14" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H14" t="s" s="0">
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="C15" t="n" s="6">
-        <v>46024.0</v>
+        <v>32</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>68</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="E15" t="n" s="6">
-        <v>46027.0</v>
+        <v>46003.0</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G15" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H15" t="s" s="0">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="C16" t="n" s="6">
+        <v>45978.848344907405</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E16" t="n" s="6">
+        <v>46008.0</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="H16" t="s" s="0">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C17" t="n" s="6">
+        <v>45978.848344907405</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E17" t="n" s="6">
+        <v>45992.0</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H17" t="s" s="0">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C18" t="n" s="6">
+        <v>45978.85255787037</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E18" t="n" s="6">
+        <v>45992.0</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s" s="0">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C19" t="n" s="6">
+        <v>45979.47699074074</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E19" t="n" s="6">
+        <v>45994.0</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H19" t="s" s="0">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C20" t="n" s="6">
+        <v>45980.44677083333</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E20" t="n" s="6">
+        <v>45992.0</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H20" t="s" s="0">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C21" t="n" s="6">
+        <v>45982.43369212963</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E21" t="n" s="6">
+        <v>45996.0</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H21" t="s" s="0">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C22" t="n" s="6">
+        <v>45985.61516203704</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E22" t="n" s="6">
+        <v>46006.0</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s" s="0">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C23" t="n" s="6">
+        <v>45985.76002314815</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E23" t="n" s="6">
+        <v>45995.0</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H23" t="s" s="0">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C24" t="n" s="6">
+        <v>45986.27584490741</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="E24" t="n" s="6">
+        <v>46003.0</v>
+      </c>
+      <c r="F24" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G24" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H24" t="s" s="0">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C25" t="n" s="6">
+        <v>45986.46753472222</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E25" t="n" s="6">
+        <v>46000.0</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G25" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H25" t="s" s="0">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C26" t="n" s="6">
+        <v>45986.47525462963</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="E26" t="n" s="6">
+        <v>45996.0</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G26" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H26" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="C27" t="n" s="6">
+        <v>45986.56943287037</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="E27" t="n" s="6">
+        <v>45995.0</v>
+      </c>
+      <c r="F27" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H27" t="s" s="0">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="C28" t="n" s="6">
+        <v>45987.481099537035</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="E28" t="n" s="6">
+        <v>45995.0</v>
+      </c>
+      <c r="F28" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G28" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H28" t="s" s="0">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C29" t="n" s="6">
+        <v>45987.613645833335</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="E29" t="n" s="6">
+        <v>46002.0</v>
+      </c>
+      <c r="F29" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G29" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H29" t="s" s="0">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C30" t="n" s="6">
+        <v>45988.30533564815</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="E30" t="n" s="6">
+        <v>45994.0</v>
+      </c>
+      <c r="F30" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G30" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H30" t="s" s="0">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C31" t="n" s="6">
+        <v>45988.30787037037</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="E31" t="n" s="6">
+        <v>45996.0</v>
+      </c>
+      <c r="F31" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G31" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H31" t="s" s="0">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C32" t="n" s="6">
+        <v>45988.48637731482</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="E32" t="n" s="6">
+        <v>45995.0</v>
+      </c>
+      <c r="F32" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G32" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H32" t="s" s="0">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C33" t="n" s="6">
+        <v>45988.581921296296</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="E33" t="n" s="6">
+        <v>45996.0</v>
+      </c>
+      <c r="F33" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G33" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H33" t="s" s="0">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C34" t="n" s="6">
+        <v>45989.360289351855</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="E34" t="n" s="6">
+        <v>46001.0</v>
+      </c>
+      <c r="F34" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G34" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H34" t="s" s="0">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C35" t="n" s="6">
+        <v>45989.423368055555</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="E35" t="n" s="6">
+        <v>46008.0</v>
+      </c>
+      <c r="F35" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H35" t="s" s="0">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C36" t="n" s="6">
+        <v>45989.423368055555</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="E36" t="n" s="6">
+        <v>45994.0</v>
+      </c>
+      <c r="F36" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G36" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H36" t="s" s="0">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="C37" t="n" s="6">
+        <v>45989.423368055555</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="E37" t="n" s="6">
+        <v>45996.0</v>
+      </c>
+      <c r="F37" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G37" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H37" t="s" s="0">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="C38" t="n" s="6">
+        <v>45992.0</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="E38" t="n" s="6">
+        <v>45993.0</v>
+      </c>
+      <c r="F38" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G38" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H38" t="s" s="0">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="C39" t="n" s="6">
+        <v>45992.0</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="E39" t="n" s="6">
+        <v>46007.0</v>
+      </c>
+      <c r="F39" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G39" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H39" t="s" s="0">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="C40" t="n" s="6">
+        <v>45993.0</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="E40" t="n" s="6">
+        <v>45993.0</v>
+      </c>
+      <c r="F40" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G40" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H40" t="s" s="0">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="C41" t="n" s="6">
+        <v>45993.0</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="E41" t="n" s="6">
+        <v>45993.0</v>
+      </c>
+      <c r="F41" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G41" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H41" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C42" t="n" s="6">
+        <v>45993.0</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="E42" t="n" s="6">
+        <v>45993.0</v>
+      </c>
+      <c r="F42" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G42" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H42" t="s" s="0">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="C43" t="n" s="6">
+        <v>45993.0</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="E43" t="n" s="6">
+        <v>45994.0</v>
+      </c>
+      <c r="F43" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G43" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H43" t="s" s="0">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="C44" t="n" s="6">
+        <v>45993.0</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="E44" t="n" s="6">
+        <v>45994.0</v>
+      </c>
+      <c r="F44" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G44" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H44" t="s" s="0">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C45" t="n" s="6">
+        <v>45993.0</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E45" t="n" s="6">
+        <v>46008.0</v>
+      </c>
+      <c r="F45" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G45" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H45" t="s" s="0">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="C46" t="n" s="6">
+        <v>45994.58886574074</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="E46" t="n" s="6">
+        <v>46003.0</v>
+      </c>
+      <c r="F46" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G46" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H46" t="s" s="0">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C47" t="n" s="6">
+        <v>45994.715578703705</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="E47" t="n" s="6">
+        <v>45995.0</v>
+      </c>
+      <c r="F47" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G47" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H47" t="s" s="0">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C48" t="n" s="6">
+        <v>45994.83244212963</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E48" t="n" s="6">
+        <v>45995.0</v>
+      </c>
+      <c r="F48" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G48" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H48" t="s" s="0">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C49" t="n" s="6">
+        <v>45994.84756944444</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E49" t="n" s="6">
+        <v>45995.0</v>
+      </c>
+      <c r="F49" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G49" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H49" t="s" s="0">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C50" t="n" s="6">
+        <v>45995.27034722222</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="E50" t="n" s="6">
+        <v>46006.0</v>
+      </c>
+      <c r="F50" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G50" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H50" t="s" s="0">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="C51" t="n" s="6">
+        <v>45995.41144675926</v>
+      </c>
+      <c r="D51" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="E51" t="n" s="6">
+        <v>45995.0</v>
+      </c>
+      <c r="F51" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G51" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="H51" t="s" s="0">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C52" t="n" s="6">
+        <v>45995.589953703704</v>
+      </c>
+      <c r="D52" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="E52" t="n" s="6">
+        <v>45995.0</v>
+      </c>
+      <c r="F52" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G52" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="H52" t="s" s="0">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C53" t="n" s="6">
+        <v>45996.0</v>
+      </c>
+      <c r="D53" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="E53" t="n" s="6">
+        <v>45996.0</v>
+      </c>
+      <c r="F53" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G53" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="H53" t="s" s="0">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="C54" t="n" s="6">
+        <v>45996.0</v>
+      </c>
+      <c r="D54" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="E54" t="n" s="6">
+        <v>45996.0</v>
+      </c>
+      <c r="F54" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G54" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="H54" t="s" s="0">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C55" t="n" s="6">
+        <v>45996.462233796294</v>
+      </c>
+      <c r="D55" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="E55" t="n" s="6">
+        <v>46002.0</v>
+      </c>
+      <c r="F55" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G55" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H55" t="s" s="0">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C56" t="n" s="6">
+        <v>45996.64671296296</v>
+      </c>
+      <c r="D56" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E56" t="n" s="6">
+        <v>46001.0</v>
+      </c>
+      <c r="F56" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G56" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H56" t="s" s="0">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C57" t="n" s="6">
+        <v>45996.66452546296</v>
+      </c>
+      <c r="D57" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E57" t="n" s="6">
+        <v>45996.66452546296</v>
+      </c>
+      <c r="F57" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G57" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="H57" t="s" s="0">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="C58" t="n" s="6">
+        <v>45996.67223379629</v>
+      </c>
+      <c r="D58" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E58" t="n" s="6">
+        <v>46020.0</v>
+      </c>
+      <c r="F58" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G58" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H58" t="s" s="0">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C59" t="n" s="6">
+        <v>45999.15525462963</v>
+      </c>
+      <c r="D59" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="E59" t="n" s="6">
+        <v>45999.15525462963</v>
+      </c>
+      <c r="F59" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G59" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H59" t="s" s="0">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C60" t="n" s="6">
+        <v>45999.307222222225</v>
+      </c>
+      <c r="D60" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E60" t="n" s="6">
+        <v>46013.0</v>
+      </c>
+      <c r="F60" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G60" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H60" t="s" s="0">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C61" t="n" s="6">
+        <v>45999.312002314815</v>
+      </c>
+      <c r="D61" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E61" t="n" s="6">
+        <v>45999.312002314815</v>
+      </c>
+      <c r="F61" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G61" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H61" t="s" s="0">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C62" t="n" s="6">
+        <v>45999.38353009259</v>
+      </c>
+      <c r="D62" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="E62" t="n" s="6">
+        <v>46001.0</v>
+      </c>
+      <c r="F62" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G62" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H62" t="s" s="0">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C63" t="n" s="6">
+        <v>45999.43809027778</v>
+      </c>
+      <c r="D63" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="E63" t="n" s="6">
+        <v>46006.0</v>
+      </c>
+      <c r="F63" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G63" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H63" t="s" s="0">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C64" t="n" s="6">
+        <v>45999.4383912037</v>
+      </c>
+      <c r="D64" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="E64" t="n" s="6">
+        <v>46010.0</v>
+      </c>
+      <c r="F64" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G64" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H64" t="s" s="0">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C65" t="n" s="6">
+        <v>45999.540347222224</v>
+      </c>
+      <c r="D65" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="E65" t="n" s="6">
+        <v>46002.0</v>
+      </c>
+      <c r="F65" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G65" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H65" t="s" s="0">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C66" t="n" s="6">
+        <v>45999.58729166666</v>
+      </c>
+      <c r="D66" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="E66" t="n" s="6">
+        <v>46002.0</v>
+      </c>
+      <c r="F66" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G66" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H66" t="s" s="0">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C67" t="n" s="6">
+        <v>45999.80917824074</v>
+      </c>
+      <c r="D67" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E67" t="n" s="6">
+        <v>46001.0</v>
+      </c>
+      <c r="F67" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G67" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H67" t="s" s="0">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C68" t="n" s="6">
+        <v>45999.83787037037</v>
+      </c>
+      <c r="D68" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E68" t="n" s="6">
+        <v>45999.83787037037</v>
+      </c>
+      <c r="F68" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G68" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H68" t="s" s="0">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C69" t="n" s="6">
+        <v>46000.28570601852</v>
+      </c>
+      <c r="D69" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="E69" t="n" s="6">
+        <v>46000.28570601852</v>
+      </c>
+      <c r="F69" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G69" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H69" t="s" s="0">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C70" t="n" s="6">
+        <v>46000.30369212963</v>
+      </c>
+      <c r="D70" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="E70" t="n" s="6">
+        <v>46000.30369212963</v>
+      </c>
+      <c r="F70" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G70" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H70" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="C71" t="n" s="6">
+        <v>46000.350277777776</v>
+      </c>
+      <c r="D71" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E71" t="n" s="6">
+        <v>46002.0</v>
+      </c>
+      <c r="F71" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G71" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H71" t="s" s="0">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="C72" t="n" s="6">
+        <v>46000.4090162037</v>
+      </c>
+      <c r="D72" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E72" t="n" s="6">
+        <v>46003.0</v>
+      </c>
+      <c r="F72" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G72" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H72" t="s" s="0">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C73" t="n" s="6">
+        <v>46000.527337962965</v>
+      </c>
+      <c r="D73" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="E73" t="n" s="6">
+        <v>46001.0</v>
+      </c>
+      <c r="F73" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G73" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H73" t="s" s="0">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C74" t="n" s="6">
+        <v>46001.24625</v>
+      </c>
+      <c r="D74" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="E74" t="n" s="6">
+        <v>46002.0</v>
+      </c>
+      <c r="F74" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G74" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H74" t="s" s="0">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C75" t="n" s="6">
+        <v>46001.452581018515</v>
+      </c>
+      <c r="D75" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E75" t="n" s="6">
+        <v>46001.452581018515</v>
+      </c>
+      <c r="F75" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G75" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H75" t="s" s="0">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C76" t="n" s="6">
+        <v>46001.50858796296</v>
+      </c>
+      <c r="D76" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E76" t="n" s="6">
+        <v>46001.50858796296</v>
+      </c>
+      <c r="F76" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G76" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H76" t="s" s="0">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="C77" t="n" s="6">
+        <v>46001.59295138889</v>
+      </c>
+      <c r="D77" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="E77" t="n" s="6">
+        <v>46007.0</v>
+      </c>
+      <c r="F77" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G77" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H77" t="s" s="0">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C78" t="n" s="6">
+        <v>46002.0</v>
+      </c>
+      <c r="D78" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="E78" t="n" s="6">
+        <v>46002.0</v>
+      </c>
+      <c r="F78" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G78" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H78" t="s" s="0">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="B79" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C79" t="n" s="6">
+        <v>46002.0</v>
+      </c>
+      <c r="D79" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="E79" t="n" s="6">
+        <v>46002.0</v>
+      </c>
+      <c r="F79" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G79" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H79" t="s" s="0">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C80" t="n" s="6">
+        <v>46002.0</v>
+      </c>
+      <c r="D80" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E80" t="n" s="6">
+        <v>46002.0</v>
+      </c>
+      <c r="F80" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G80" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="H80" t="s" s="0">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="B81" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="C81" t="n" s="6">
+        <v>46002.0</v>
+      </c>
+      <c r="D81" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="E81" t="n" s="6">
+        <v>46003.0</v>
+      </c>
+      <c r="F81" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G81" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H81" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="B82" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C82" t="n" s="6">
+        <v>46002.0</v>
+      </c>
+      <c r="D82" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E82" t="n" s="6">
+        <v>46003.0</v>
+      </c>
+      <c r="F82" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G82" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H82" t="s" s="0">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="C83" t="n" s="6">
+        <v>46002.0</v>
+      </c>
+      <c r="D83" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="E83" t="n" s="6">
+        <v>46008.0</v>
+      </c>
+      <c r="F83" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G83" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H83" t="s" s="0">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="B84" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="C84" t="n" s="6">
+        <v>46002.719513888886</v>
+      </c>
+      <c r="D84" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="E84" t="n" s="6">
+        <v>46003.0</v>
+      </c>
+      <c r="F84" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G84" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H84" t="s" s="0">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="B85" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C85" t="n" s="6">
+        <v>46003.32740740741</v>
+      </c>
+      <c r="D85" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="E85" t="n" s="6">
+        <v>46003.0</v>
+      </c>
+      <c r="F85" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G85" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H85" t="s" s="0">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="B86" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C86" t="n" s="6">
+        <v>46003.596863425926</v>
+      </c>
+      <c r="D86" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="E86" t="n" s="6">
+        <v>46006.0</v>
+      </c>
+      <c r="F86" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G86" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H86" t="s" s="0">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="B87" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C87" t="n" s="6">
+        <v>46005.59075231481</v>
+      </c>
+      <c r="D87" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E87" t="n" s="6">
+        <v>46006.0</v>
+      </c>
+      <c r="F87" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G87" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H87" t="s" s="0">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="B88" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C88" t="n" s="6">
+        <v>46005.76462962963</v>
+      </c>
+      <c r="D88" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E88" t="n" s="6">
+        <v>46009.0</v>
+      </c>
+      <c r="F88" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G88" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H88" t="s" s="0">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="B89" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C89" t="n" s="6">
+        <v>46005.767430555556</v>
+      </c>
+      <c r="D89" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E89" t="n" s="6">
+        <v>46006.0</v>
+      </c>
+      <c r="F89" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G89" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H89" t="s" s="0">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="B90" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C90" t="n" s="6">
+        <v>46006.18958333333</v>
+      </c>
+      <c r="D90" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="E90" t="n" s="6">
+        <v>46006.0</v>
+      </c>
+      <c r="F90" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G90" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H90" t="s" s="0">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="B91" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C91" t="n" s="6">
+        <v>46006.4690625</v>
+      </c>
+      <c r="D91" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="E91" t="n" s="6">
+        <v>46010.0</v>
+      </c>
+      <c r="F91" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G91" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H91" t="s" s="0">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="B92" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C92" t="n" s="6">
+        <v>46006.585335648146</v>
+      </c>
+      <c r="D92" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="E92" t="n" s="6">
+        <v>46008.0</v>
+      </c>
+      <c r="F92" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G92" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H92" t="s" s="0">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B93" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C93" t="n" s="6">
+        <v>46006.66722222222</v>
+      </c>
+      <c r="D93" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="E93" t="n" s="6">
+        <v>46009.0</v>
+      </c>
+      <c r="F93" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G93" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H93" t="s" s="0">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="B94" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C94" t="n" s="6">
+        <v>46006.0</v>
+      </c>
+      <c r="D94" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E94" t="n" s="6">
+        <v>46007.0</v>
+      </c>
+      <c r="F94" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G94" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H94" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="B95" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C95" t="n" s="6">
+        <v>46006.0</v>
+      </c>
+      <c r="D95" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="E95" t="n" s="6">
+        <v>46006.0</v>
+      </c>
+      <c r="F95" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G95" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="H95" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="B96" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C96" t="n" s="6">
+        <v>46006.0</v>
+      </c>
+      <c r="D96" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="E96" t="n" s="6">
+        <v>46014.0</v>
+      </c>
+      <c r="F96" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G96" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H96" t="s" s="0">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="B97" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n" s="6">
+        <v>46007.0</v>
+      </c>
+      <c r="D97" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="E97" t="n" s="6">
+        <v>46013.0</v>
+      </c>
+      <c r="F97" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G97" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H97" t="s" s="0">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="B98" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="C98" t="n" s="6">
+        <v>46007.0</v>
+      </c>
+      <c r="D98" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="E98" t="n" s="6">
+        <v>46027.0</v>
+      </c>
+      <c r="F98" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G98" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H98" t="s" s="0">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="B99" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C99" t="n" s="6">
+        <v>46007.0</v>
+      </c>
+      <c r="D99" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="E99" t="n" s="6">
+        <v>46014.0</v>
+      </c>
+      <c r="F99" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G99" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H99" t="s" s="0">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="B100" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C100" t="n" s="6">
+        <v>46007.0</v>
+      </c>
+      <c r="D100" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="E100" t="n" s="6">
+        <v>46008.0</v>
+      </c>
+      <c r="F100" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G100" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H100" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="B101" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C101" t="n" s="6">
+        <v>46007.0</v>
+      </c>
+      <c r="D101" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E101" t="n" s="6">
+        <v>46008.0</v>
+      </c>
+      <c r="F101" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G101" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H101" t="s" s="0">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="0">
+        <v>271</v>
+      </c>
+      <c r="B102" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C102" t="n" s="6">
+        <v>46008.0</v>
+      </c>
+      <c r="D102" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E102" t="n" s="6">
+        <v>46008.0</v>
+      </c>
+      <c r="F102" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G102" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H102" t="s" s="0">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="B103" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C103" t="n" s="6">
+        <v>46008.0</v>
+      </c>
+      <c r="D103" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E103" t="n" s="6">
+        <v>46008.0</v>
+      </c>
+      <c r="F103" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G103" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H103" t="s" s="0">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="B104" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C104" t="n" s="6">
+        <v>46008.0</v>
+      </c>
+      <c r="D104" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="E104" t="n" s="6">
+        <v>46013.0</v>
+      </c>
+      <c r="F104" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G104" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H104" t="s" s="0">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="B105" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="C105" t="n" s="6">
+        <v>46008.0</v>
+      </c>
+      <c r="D105" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="E105" t="n" s="6">
+        <v>46008.0</v>
+      </c>
+      <c r="F105" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G105" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="H105" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="B106" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="C106" t="n" s="6">
+        <v>46008.0</v>
+      </c>
+      <c r="D106" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="E106" t="n" s="6">
+        <v>46008.0</v>
+      </c>
+      <c r="F106" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G106" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H106" t="s" s="0">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="B107" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C107" t="n" s="6">
+        <v>46009.0</v>
+      </c>
+      <c r="D107" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E107" t="n" s="6">
+        <v>46009.0</v>
+      </c>
+      <c r="F107" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G107" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="H107" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="B108" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C108" t="n" s="6">
+        <v>46009.0</v>
+      </c>
+      <c r="D108" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="E108" t="n" s="6">
+        <v>46014.0</v>
+      </c>
+      <c r="F108" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G108" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H108" t="s" s="0">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="B109" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C109" t="n" s="6">
+        <v>46009.0</v>
+      </c>
+      <c r="D109" t="s" s="0">
+        <v>287</v>
+      </c>
+      <c r="E109" t="n" s="6">
+        <v>46009.0</v>
+      </c>
+      <c r="F109" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G109" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="H109" t="s" s="0">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="B110" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C110" t="n" s="6">
+        <v>46009.0</v>
+      </c>
+      <c r="D110" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E110" t="n" s="6">
+        <v>46009.0</v>
+      </c>
+      <c r="F110" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G110" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="H110" t="s" s="0">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="B111" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C111" t="n" s="6">
+        <v>46009.0</v>
+      </c>
+      <c r="D111" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E111" t="n" s="6">
+        <v>46009.0</v>
+      </c>
+      <c r="F111" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G111" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="H111" t="s" s="0">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="B112" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C112" t="n" s="6">
+        <v>46009.0</v>
+      </c>
+      <c r="D112" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E112" t="n" s="6">
+        <v>46009.0</v>
+      </c>
+      <c r="F112" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G112" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="H112" t="s" s="0">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="B113" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C113" t="n" s="6">
+        <v>46009.0</v>
+      </c>
+      <c r="D113" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E113" t="n" s="6">
+        <v>46009.0</v>
+      </c>
+      <c r="F113" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G113" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="H113" t="s" s="0">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="B114" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C114" t="n" s="6">
+        <v>46010.0</v>
+      </c>
+      <c r="D114" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="E114" t="n" s="6">
+        <v>46020.0</v>
+      </c>
+      <c r="F114" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G114" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H114" t="s" s="0">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="B115" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C115" t="n" s="6">
+        <v>46010.0</v>
+      </c>
+      <c r="D115" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="E115" t="n" s="6">
+        <v>46013.0</v>
+      </c>
+      <c r="F115" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G115" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H115" t="s" s="0">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="B116" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C116" t="n" s="6">
+        <v>46012.0</v>
+      </c>
+      <c r="D116" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E116" t="n" s="6">
+        <v>46013.0</v>
+      </c>
+      <c r="F116" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G116" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H116" t="s" s="0">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="B117" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C117" t="n" s="6">
+        <v>46013.0</v>
+      </c>
+      <c r="D117" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="E117" t="n" s="6">
+        <v>46014.0</v>
+      </c>
+      <c r="F117" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G117" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H117" t="s" s="0">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="B118" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="C118" t="n" s="6">
+        <v>46013.0</v>
+      </c>
+      <c r="D118" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="E118" t="n" s="6">
+        <v>46013.0</v>
+      </c>
+      <c r="F118" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G118" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="H118" t="s" s="0">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="B119" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C119" t="n" s="6">
+        <v>46017.348287037035</v>
+      </c>
+      <c r="D119" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="E119" t="n" s="6">
+        <v>46020.0</v>
+      </c>
+      <c r="F119" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G119" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H119" t="s" s="0">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="B120" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C120" t="n" s="6">
+        <v>46019.397465277776</v>
+      </c>
+      <c r="D120" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E120" t="n" s="6">
+        <v>46020.0</v>
+      </c>
+      <c r="F120" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G120" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H120" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="B121" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C121" t="n" s="6">
+        <v>46020.36070601852</v>
+      </c>
+      <c r="D121" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E121" t="n" s="6">
+        <v>46020.0</v>
+      </c>
+      <c r="F121" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G121" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H121" t="s" s="0">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="B122" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C122" t="n" s="6">
+        <v>46020.56675925926</v>
+      </c>
+      <c r="D122" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="E122" t="n" s="6">
+        <v>46020.0</v>
+      </c>
+      <c r="F122" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G122" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="H122" t="s" s="0">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="B123" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="C123" t="n" s="6">
+        <v>46020.84887731481</v>
+      </c>
+      <c r="D123" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="E123" t="n" s="6">
+        <v>46021.0</v>
+      </c>
+      <c r="F123" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G123" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H123" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="0">
+        <v>323</v>
+      </c>
+      <c r="B124" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C124" t="n" s="6">
+        <v>46020.89542824074</v>
+      </c>
+      <c r="D124" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E124" t="n" s="6">
+        <v>46021.0</v>
+      </c>
+      <c r="F124" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G124" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H124" t="s" s="0">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="B125" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C125" t="n" s="6">
+        <v>46021.39056712963</v>
+      </c>
+      <c r="D125" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E125" t="n" s="6">
+        <v>46021.0</v>
+      </c>
+      <c r="F125" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G125" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="H125" t="s" s="0">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="B126" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C126" t="n" s="6">
+        <v>46021.57331018519</v>
+      </c>
+      <c r="D126" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E126" t="n" s="6">
+        <v>46021.0</v>
+      </c>
+      <c r="F126" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G126" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="H126" t="s" s="0">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="B127" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C127" t="n" s="6">
+        <v>46021.0</v>
+      </c>
+      <c r="D127" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E127" t="n" s="6">
+        <v>46021.0</v>
+      </c>
+      <c r="F127" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G127" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="H127" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="B128" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C128" t="n" s="6">
         <v>46024.0</v>
       </c>
-      <c r="D16" t="s" s="0">
+      <c r="D128" t="s" s="0">
+        <v>332</v>
+      </c>
+      <c r="E128" t="n" s="6">
+        <v>46024.0</v>
+      </c>
+      <c r="F128" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G128" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H128" t="s" s="0">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="0">
+        <v>334</v>
+      </c>
+      <c r="B129" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C129" t="n" s="6">
+        <v>46024.0</v>
+      </c>
+      <c r="D129" t="s" s="0">
+        <v>332</v>
+      </c>
+      <c r="E129" t="n" s="6">
+        <v>46024.0</v>
+      </c>
+      <c r="F129" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G129" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H129" t="s" s="0">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="B130" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E16" t="n" s="6">
+      <c r="C130" t="n" s="6">
         <v>46024.0</v>
       </c>
-      <c r="F16" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="H16" t="s" s="0">
-        <v>54</v>
+      <c r="D130" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="E130" t="n" s="6">
+        <v>46027.0</v>
+      </c>
+      <c r="F130" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G130" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H130" t="s" s="0">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="B131" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C131" t="n" s="6">
+        <v>46024.0</v>
+      </c>
+      <c r="D131" t="s" s="0">
+        <v>332</v>
+      </c>
+      <c r="E131" t="n" s="6">
+        <v>46024.0</v>
+      </c>
+      <c r="F131" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G131" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="H131" t="s" s="0">
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -1318,2214 +5056,2214 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>55</v>
+        <v>339</v>
       </c>
       <c r="B1" t="s" s="0">
         <v>0</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>56</v>
+        <v>340</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>57</v>
+        <v>341</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>58</v>
+        <v>342</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>59</v>
+        <v>343</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>60</v>
+        <v>345</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>61</v>
+        <v>345</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>62</v>
+        <v>346</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>63</v>
+        <v>347</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>64</v>
+        <v>348</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>65</v>
+        <v>349</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>67</v>
+        <v>350</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>71</v>
+        <v>352</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>72</v>
+        <v>353</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>73</v>
+        <v>354</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>74</v>
+        <v>355</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>75</v>
+        <v>356</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>76</v>
+        <v>357</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>77</v>
+        <v>358</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>78</v>
+        <v>359</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>79</v>
+        <v>360</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>80</v>
+        <v>361</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>81</v>
+        <v>362</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>82</v>
+        <v>363</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>83</v>
+        <v>364</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>84</v>
+        <v>365</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>85</v>
+        <v>366</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>86</v>
+        <v>367</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>87</v>
+        <v>368</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>88</v>
+        <v>369</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>89</v>
+        <v>370</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>90</v>
+        <v>371</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>91</v>
+        <v>372</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>92</v>
+        <v>373</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>93</v>
+        <v>374</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>94</v>
+        <v>375</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>95</v>
+        <v>376</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>96</v>
+        <v>377</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>97</v>
+        <v>378</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>98</v>
+        <v>379</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>99</v>
+        <v>380</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>100</v>
+        <v>381</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>101</v>
+        <v>382</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>102</v>
+        <v>383</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>103</v>
+        <v>384</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>104</v>
+        <v>385</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>105</v>
+        <v>386</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>106</v>
+        <v>387</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>107</v>
+        <v>388</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>108</v>
+        <v>389</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>109</v>
+        <v>390</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>110</v>
+        <v>391</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>111</v>
+        <v>392</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>112</v>
+        <v>393</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>113</v>
+        <v>394</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>114</v>
+        <v>395</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>115</v>
+        <v>396</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>116</v>
+        <v>397</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>117</v>
+        <v>398</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>118</v>
+        <v>399</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>119</v>
+        <v>400</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>120</v>
+        <v>401</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>121</v>
+        <v>402</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>122</v>
+        <v>403</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>123</v>
+        <v>404</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>124</v>
+        <v>405</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>125</v>
+        <v>406</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>126</v>
+        <v>407</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>127</v>
+        <v>408</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>128</v>
+        <v>409</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>129</v>
+        <v>410</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>130</v>
+        <v>411</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>131</v>
+        <v>412</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>132</v>
+        <v>413</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>133</v>
+        <v>414</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>134</v>
+        <v>415</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>135</v>
+        <v>416</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>136</v>
+        <v>417</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>137</v>
+        <v>418</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>138</v>
+        <v>419</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>139</v>
+        <v>420</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>140</v>
+        <v>421</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>141</v>
+        <v>422</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>142</v>
+        <v>423</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>143</v>
+        <v>424</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>144</v>
+        <v>425</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>145</v>
+        <v>426</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>146</v>
+        <v>427</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>147</v>
+        <v>428</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>148</v>
+        <v>429</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>149</v>
+        <v>430</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D82" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>150</v>
+        <v>431</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C84" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D84" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>152</v>
+        <v>432</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C85" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D85" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>153</v>
+        <v>433</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D86" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>154</v>
+        <v>434</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D87" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>155</v>
+        <v>435</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D88" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>156</v>
+        <v>436</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>157</v>
+        <v>437</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>158</v>
+        <v>438</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C91" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>159</v>
+        <v>439</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C92" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>160</v>
+        <v>440</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C93" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D93" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
-        <v>161</v>
+        <v>441</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D94" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="0">
-        <v>162</v>
+        <v>442</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C95" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
       <c r="D95" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="0">
-        <v>163</v>
+        <v>443</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
       <c r="D96" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="0">
-        <v>164</v>
+        <v>444</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C97" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="0">
-        <v>165</v>
+        <v>445</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C98" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D98" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="0">
-        <v>166</v>
+        <v>446</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C99" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D99" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
-        <v>167</v>
+        <v>447</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
       <c r="D100" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="0">
-        <v>168</v>
+        <v>448</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C101" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
       <c r="D101" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
-        <v>169</v>
+        <v>449</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C102" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
       <c r="D102" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="0">
-        <v>170</v>
+        <v>450</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D103" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="0">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C104" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D104" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="0">
-        <v>172</v>
+        <v>451</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C105" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D105" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="0">
-        <v>173</v>
+        <v>44</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C106" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D106" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="0">
-        <v>174</v>
+        <v>452</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C107" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
       <c r="D107" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="0">
-        <v>175</v>
+        <v>453</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C108" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
       <c r="D108" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="0">
-        <v>176</v>
+        <v>454</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C109" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D109" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="0">
-        <v>177</v>
+        <v>51</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C110" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
       <c r="D110" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="0">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C111" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
       <c r="D111" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="0">
-        <v>179</v>
+        <v>455</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C112" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
       <c r="D112" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="0">
-        <v>180</v>
+        <v>456</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C113" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D113" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="0">
-        <v>181</v>
+        <v>457</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C114" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D114" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="0">
-        <v>182</v>
+        <v>458</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C115" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D115" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="0">
-        <v>183</v>
+        <v>459</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C116" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D116" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="0">
-        <v>184</v>
+        <v>460</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C117" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D117" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="0">
-        <v>185</v>
+        <v>461</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C118" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D118" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="0">
-        <v>186</v>
+        <v>63</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C119" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D119" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="0">
-        <v>187</v>
+        <v>462</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C120" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D120" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="0">
-        <v>188</v>
+        <v>463</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C121" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
       <c r="D121" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="0">
-        <v>189</v>
+        <v>464</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C122" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
       <c r="D122" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="0">
-        <v>190</v>
+        <v>70</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C123" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D123" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="0">
-        <v>191</v>
+        <v>465</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C124" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
       <c r="D124" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="0">
-        <v>192</v>
+        <v>73</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C125" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
       <c r="D125" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="0">
-        <v>193</v>
+        <v>75</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C126" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
       <c r="D126" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="0">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C127" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
       <c r="D127" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="0">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C128" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
       <c r="D128" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="0">
-        <v>196</v>
+        <v>466</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C129" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D129" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="0">
-        <v>197</v>
+        <v>81</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C130" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D130" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="0">
-        <v>198</v>
+        <v>467</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C131" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D131" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="0">
-        <v>199</v>
+        <v>468</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C132" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D132" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="0">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C133" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D133" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="0">
-        <v>201</v>
+        <v>87</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C134" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D134" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="0">
-        <v>202</v>
+        <v>469</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C135" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D135" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="0">
-        <v>203</v>
+        <v>470</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C136" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D136" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="0">
-        <v>204</v>
+        <v>471</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C137" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D137" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="0">
-        <v>205</v>
+        <v>113</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C138" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
       <c r="D138" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="0">
-        <v>206</v>
+        <v>133</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C139" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D139" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="0">
-        <v>207</v>
+        <v>140</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C140" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
       <c r="D140" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="0">
-        <v>208</v>
+        <v>155</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C141" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D141" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="0">
-        <v>209</v>
+        <v>168</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C142" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D142" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="0">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C143" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D143" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="0">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C144" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D144" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="0">
-        <v>211</v>
+        <v>177</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C145" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
       <c r="D145" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="0">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C146" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D146" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="0">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C147" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
       <c r="D147" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="0">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C148" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
       <c r="D148" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="0">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C149" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
       <c r="D149" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="0">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C150" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
       <c r="D150" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="0">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C151" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D151" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="0">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C152" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D152" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="0">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C153" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D153" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="0">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C154" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D154" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="0">
-        <v>221</v>
+        <v>289</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C155" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D155" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="0">
-        <v>222</v>
+        <v>291</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C156" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D156" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="0">
-        <v>223</v>
+        <v>304</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C157" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D157" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="0">
-        <v>18</v>
+        <v>311</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="C158" t="s" s="0">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="D158" t="s" s="0">
-        <v>70</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
